--- a/historialFantasyV3.xlsx
+++ b/historialFantasyV3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latuf\Desktop\Fantasy\Pagina web fantasy NFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latuf\Downloads\FantasyLFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E63D5-6E4F-46CF-93B0-1692054033AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6660" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos regular" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,28 @@
     <sheet name="paternidades" sheetId="4" r:id="rId4"/>
     <sheet name="Ranking" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="173">
   <si>
     <t>Temporada</t>
   </si>
@@ -544,12 +556,15 @@
   </si>
   <si>
     <t>2024 -1</t>
+  </si>
+  <si>
+    <t>KJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,24 +640,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -655,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -669,7 +681,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -973,20 +985,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B357"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B1">
@@ -994,12 +1006,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1007,27 +1019,27 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -1035,22 +1047,22 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1058,17 +1070,17 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1076,17 +1088,17 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1094,17 +1106,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1112,22 +1124,22 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27">
@@ -1135,17 +1147,17 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30">
@@ -1153,22 +1165,22 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B34">
@@ -1176,17 +1188,17 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B37">
@@ -1194,22 +1206,22 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B41">
@@ -1217,17 +1229,17 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B44">
@@ -1235,22 +1247,22 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B48">
@@ -1258,17 +1270,17 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B51">
@@ -1276,22 +1288,22 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B55" t="s">
@@ -1299,22 +1311,22 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B59">
@@ -1322,22 +1334,22 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B63">
@@ -1345,22 +1357,22 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B67">
@@ -1368,22 +1380,22 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B71">
@@ -1391,22 +1403,22 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B75">
@@ -1414,22 +1426,22 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B79">
@@ -1437,22 +1449,22 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B83">
@@ -1460,22 +1472,22 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B87">
@@ -1483,22 +1495,22 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B91">
@@ -1506,22 +1518,22 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B95">
@@ -1529,22 +1541,22 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B99">
@@ -1552,22 +1564,22 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B103">
@@ -1575,22 +1587,22 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B107">
@@ -1598,22 +1610,22 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B111" t="s">
@@ -1621,22 +1633,22 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B115">
@@ -1644,22 +1656,22 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B119">
@@ -1667,22 +1679,22 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B123">
@@ -1690,22 +1702,22 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B127">
@@ -1713,22 +1725,22 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B131">
@@ -1736,22 +1748,22 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B135">
@@ -1759,22 +1771,22 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B139">
@@ -1782,22 +1794,22 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B143">
@@ -1805,22 +1817,22 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B147">
@@ -1828,22 +1840,22 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B151">
@@ -1851,22 +1863,22 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B155">
@@ -1874,22 +1886,22 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B159">
@@ -1897,22 +1909,22 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B163">
@@ -1920,22 +1932,22 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B167">
@@ -1943,22 +1955,22 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B171" t="s">
@@ -1966,22 +1978,22 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B175">
@@ -1989,22 +2001,22 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B179">
@@ -2012,22 +2024,22 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B183">
@@ -2035,22 +2047,22 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B187">
@@ -2058,22 +2070,22 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B191">
@@ -2081,22 +2093,22 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B195">
@@ -2104,22 +2116,22 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B199">
@@ -2127,22 +2139,22 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B203">
@@ -2150,22 +2162,22 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B207">
@@ -2173,22 +2185,22 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B211">
@@ -2196,22 +2208,22 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B215">
@@ -2219,22 +2231,22 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B219">
@@ -2242,22 +2254,22 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B223">
@@ -2265,22 +2277,22 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B227">
@@ -2288,22 +2300,22 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B231" t="s">
@@ -2311,22 +2323,22 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="17" t="s">
+      <c r="A232" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="17" t="s">
+      <c r="A233" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
+      <c r="A234" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B235">
@@ -2334,22 +2346,22 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="17" t="s">
+      <c r="A238" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B239">
@@ -2357,22 +2369,22 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="17" t="s">
+      <c r="A241" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="17" t="s">
+      <c r="A242" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="17" t="s">
+      <c r="A243" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B243">
@@ -2380,22 +2392,22 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="17" t="s">
+      <c r="A245" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="17" t="s">
+      <c r="A246" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="17" t="s">
+      <c r="A247" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B247">
@@ -2403,22 +2415,22 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="17" t="s">
+      <c r="A248" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B251">
@@ -2426,22 +2438,22 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="18" t="s">
+      <c r="A253" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="18" t="s">
+      <c r="A255" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B255">
@@ -2449,22 +2461,22 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="18" t="s">
+      <c r="A256" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="18" t="s">
+      <c r="A257" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="18" t="s">
+      <c r="A258" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="18" t="s">
+      <c r="A259" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B259">
@@ -2472,22 +2484,22 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="18" t="s">
+      <c r="A260" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="18" t="s">
+      <c r="A262" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="18" t="s">
+      <c r="A263" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B263">
@@ -2495,22 +2507,22 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="18" t="s">
+      <c r="A264" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="18" t="s">
+      <c r="A265" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="18" t="s">
+      <c r="A266" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="18" t="s">
+      <c r="A267" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B267">
@@ -2518,22 +2530,22 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="18" t="s">
+      <c r="A268" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="18" t="s">
+      <c r="A270" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="18" t="s">
+      <c r="A271" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B271">
@@ -2541,22 +2553,22 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="18" t="s">
+      <c r="A272" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="18" t="s">
+      <c r="A273" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="18" t="s">
+      <c r="A274" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="18" t="s">
+      <c r="A275" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B275">
@@ -2564,22 +2576,22 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B279">
@@ -2587,22 +2599,22 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="18" t="s">
+      <c r="A281" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B283">
@@ -2610,22 +2622,22 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="18" t="s">
+      <c r="A285" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="18" t="s">
+      <c r="A286" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="18" t="s">
+      <c r="A287" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B287">
@@ -2633,22 +2645,22 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="18" t="s">
+      <c r="A288" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="18" t="s">
-        <v>69</v>
+      <c r="A289" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="18" t="s">
+      <c r="A290" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="23" t="s">
+      <c r="A291" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B291" t="s">
@@ -2656,22 +2668,22 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="23" t="s">
+      <c r="A292" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="23" t="s">
+      <c r="A293" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="23" t="s">
+      <c r="A294" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="23" t="s">
+      <c r="A295" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B295">
@@ -2679,22 +2691,22 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="23" t="s">
+      <c r="A297" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="23" t="s">
+      <c r="A298" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="23" t="s">
+      <c r="A299" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B299">
@@ -2702,22 +2714,22 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="23" t="s">
+      <c r="A300" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="23" t="s">
+      <c r="A301" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="23" t="s">
+      <c r="A302" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="23" t="s">
+      <c r="A303" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B303">
@@ -2725,22 +2737,22 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="23" t="s">
+      <c r="A304" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="23" t="s">
+      <c r="A305" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="23" t="s">
+      <c r="A306" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="23" t="s">
+      <c r="A307" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B307">
@@ -2748,22 +2760,22 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="23" t="s">
+      <c r="A308" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="23" t="s">
+      <c r="A309" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="23" t="s">
+      <c r="A310" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="23" t="s">
+      <c r="A311" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B311">
@@ -2771,22 +2783,22 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="23" t="s">
+      <c r="A312" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="23" t="s">
+      <c r="A313" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="23" t="s">
+      <c r="A314" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="23" t="s">
+      <c r="A315" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B315">
@@ -2794,22 +2806,22 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="23" t="s">
+      <c r="A316" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="23" t="s">
+      <c r="A317" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="23" t="s">
+      <c r="A318" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="23" t="s">
+      <c r="A319" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B319">
@@ -2817,22 +2829,22 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="23" t="s">
+      <c r="A320" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="23" t="s">
+      <c r="A322" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="23" t="s">
+      <c r="A323" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B323">
@@ -2840,22 +2852,22 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="23" t="s">
+      <c r="A324" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="23" t="s">
+      <c r="A325" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="23" t="s">
+      <c r="A326" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="23" t="s">
+      <c r="A327" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B327">
@@ -2863,22 +2875,22 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="23" t="s">
+      <c r="A328" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="23" t="s">
+      <c r="A330" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B331">
@@ -2886,22 +2898,22 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="23" t="s">
+      <c r="A332" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="23" t="s">
+      <c r="A333" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="23" t="s">
+      <c r="A334" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="23" t="s">
+      <c r="A335" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B335">
@@ -2909,55 +2921,109 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="23" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="23" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350"/>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B339">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B343">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B347">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,11 +3032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,13 +3045,13 @@
       <c r="A1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E1" t="s">
@@ -2993,21 +3059,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3015,134 +3081,134 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3152,11 +3218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,16 +3242,16 @@
       </c>
       <c r="B2">
         <f>COUNTIF('partidos regular'!A:A,"E*")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>(B2/'partidos regular'!$B$1)*100</f>
-        <v>64.38356164383562</v>
+        <v>65.753424657534239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,16 +3260,16 @@
       </c>
       <c r="B4">
         <f>SUM(B6:B12)</f>
-        <v>12616.08</v>
+        <v>13270.68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>B4/'partidos regular'!$B$1</f>
-        <v>172.82301369863015</v>
+        <v>181.79013698630138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3325,7 @@
         <v>170</v>
       </c>
       <c r="B12">
-        <v>1157.82</v>
+        <v>1812.42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,16 +3339,16 @@
       </c>
       <c r="B14">
         <f>COUNTIF('partidos regular'!A:A,"J*")</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <f>(B14/'partidos regular'!$B$1)*100</f>
-        <v>69.863013698630141</v>
+        <v>71.232876712328761</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,16 +3357,16 @@
       </c>
       <c r="B16">
         <f>SUM(B18:B23)</f>
-        <v>11115.779999999999</v>
+        <v>11850.32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>B16/'partidos regular'!$B$1</f>
-        <v>152.27095890410956</v>
+        <v>162.3331506849315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3414,7 @@
         <v>170</v>
       </c>
       <c r="B23">
-        <v>1488.48</v>
+        <v>2223.02</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,16 +3428,16 @@
       </c>
       <c r="B25">
         <f>COUNTIF('partidos regular'!A:A,"L*")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <f>(B25/'partidos regular'!$B$1)*100</f>
-        <v>57.534246575342465</v>
+        <v>58.904109589041099</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,16 +3446,16 @@
       </c>
       <c r="B27">
         <f>SUM(B29:B34)</f>
-        <v>10498.6</v>
+        <v>11162.82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f>B27/'partidos regular'!$B$1</f>
-        <v>143.81643835616438</v>
+        <v>152.91534246575341</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3503,7 @@
         <v>170</v>
       </c>
       <c r="B34">
-        <v>1415.26</v>
+        <v>2079.48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,16 +3517,16 @@
       </c>
       <c r="B36">
         <f>COUNTIF('partidos regular'!A:A,"C*")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <f>(B36/('partidos regular'!$B$1-14))*100</f>
-        <v>59.322033898305079</v>
+        <v>61.016949152542374</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,16 +3535,16 @@
       </c>
       <c r="B38">
         <f>SUM(B40:B45)</f>
-        <v>8684.4399999999987</v>
+        <v>9485.18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <f>B38/('partidos regular'!$B$1-14)</f>
-        <v>147.19389830508473</v>
+        <v>160.76576271186443</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3592,7 @@
         <v>170</v>
       </c>
       <c r="B45">
-        <v>1331.04</v>
+        <v>2131.7800000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,16 +3606,16 @@
       </c>
       <c r="B47">
         <f>COUNTIF('partidos regular'!A:A,"G*")</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <f>(B47/'partidos regular'!$B$1)*100</f>
-        <v>47.945205479452049</v>
+        <v>50.684931506849317</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,16 +3624,16 @@
       </c>
       <c r="B49">
         <f>SUM(B51:B56)</f>
-        <v>10455.880000000001</v>
+        <v>11146.740000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <f>B49/'partidos regular'!$B$1</f>
-        <v>143.23123287671234</v>
+        <v>152.6950684931507</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3681,7 @@
         <v>170</v>
       </c>
       <c r="B56">
-        <v>1286.8399999999999</v>
+        <v>1977.7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,16 +3695,16 @@
       </c>
       <c r="B58">
         <f>COUNTIF('partidos regular'!A:A,"S*")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <f>(B58/'partidos regular'!$B$1)*100</f>
-        <v>57.534246575342465</v>
+        <v>58.904109589041099</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,16 +3713,16 @@
       </c>
       <c r="B60">
         <f>SUM(B62:B67)</f>
-        <v>10782.84</v>
+        <v>11496.8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <f>B60/'partidos regular'!$B$1</f>
-        <v>147.71013698630136</v>
+        <v>157.49041095890411</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,7 +3770,7 @@
         <v>170</v>
       </c>
       <c r="B67">
-        <v>1310.04</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,16 +3784,16 @@
       </c>
       <c r="B69">
         <f>COUNTIF('partidos regular'!A:A,"N*")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <f>(B69/'partidos regular'!$B$1)*100</f>
-        <v>57.534246575342465</v>
+        <v>58.904109589041099</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,16 +3802,16 @@
       </c>
       <c r="B71">
         <f>SUM(B73:B78)</f>
-        <v>10883.1</v>
+        <v>11533.36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <f>B71/'partidos regular'!$B$1</f>
-        <v>149.08356164383562</v>
+        <v>157.99123287671233</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3859,7 @@
         <v>170</v>
       </c>
       <c r="B78">
-        <v>1345.56</v>
+        <v>1995.82</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,16 +3873,16 @@
       </c>
       <c r="B80">
         <f>COUNTIF('partidos regular'!A:A,"K*")</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <f>(B80/('partidos regular'!$B$1-43))*100</f>
-        <v>70</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,16 +3891,16 @@
       </c>
       <c r="B82">
         <f>SUM(B84:B89)</f>
-        <v>5128.2000000000007</v>
+        <v>5932.84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <f>B82/('partidos regular'!$B$1-43)</f>
-        <v>170.94000000000003</v>
+        <v>197.76133333333334</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,20 +3948,21 @@
         <v>170</v>
       </c>
       <c r="B89">
-        <v>1189.06</v>
+        <v>1993.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,7 +3996,7 @@
       </c>
       <c r="B4" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"EN")+COUNTIF(playoffs!A:A,"EN")+COUNTIF(playoffs!E:E,"EN")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"NE")+COUNTIF(playoffs!A:A,"NE")+COUNTIF(playoffs!E:E,"GE")&amp;" ("&amp;COUNTIF(playoffs!A:A,"EN")+COUNTIF(playoffs!E:E,"EN")&amp;"-"&amp;COUNTIF(playoffs!A:A,"NE")+COUNTIF(playoffs!E:E,"NE")&amp;")"</f>
-        <v>7-4 (0-0)</v>
+        <v>7-5 (0-0)</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +4005,7 @@
       </c>
       <c r="B5" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"EL")+COUNTIF(playoffs!A:A,"EL")+COUNTIF(playoffs!E:E,"EL")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"LE")+COUNTIF(playoffs!A:A,"LE")+COUNTIF(playoffs!E:E,"LE")&amp;" ("&amp;COUNTIF(playoffs!A:A,"EL")+COUNTIF(playoffs!E:E,"EL")&amp;"-"&amp;COUNTIF(playoffs!A:A,"LE")+COUNTIF(playoffs!E:E,"LE")&amp;")"</f>
-        <v>7-4 (0-0)</v>
+        <v>8-4 (0-0)</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +4023,7 @@
       </c>
       <c r="B7" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"EK")+COUNTIF(playoffs!A:A,"EK")+COUNTIF(playoffs!E:E,"EK")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"KE")+COUNTIF(playoffs!A:A,"KE")+COUNTIF(playoffs!E:E,"KE")&amp;" ("&amp;COUNTIF(playoffs!A:A,"EK")+COUNTIF(playoffs!E:E,"EK")&amp;"-"&amp;COUNTIF(playoffs!A:A,"KE")+COUNTIF(playoffs!E:E,"KE")&amp;")"</f>
-        <v>3-5 (1-0)</v>
+        <v>3-6 (1-0)</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4074,7 @@
       </c>
       <c r="B14" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"GN")+COUNTIF(playoffs!A:A,"GN")+COUNTIF(playoffs!E:E,"GN")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"NG")+COUNTIF(playoffs!A:A,"NG")+COUNTIF(playoffs!E:E,"NG")&amp;" ("&amp;COUNTIF(playoffs!A:A,"GN")+COUNTIF(playoffs!E:E,"GN")&amp;"-"&amp;COUNTIF(playoffs!A:A,"NG")+COUNTIF(playoffs!E:E,"NG")&amp;")"</f>
-        <v>5-11 (1-0)</v>
+        <v>6-11 (1-0)</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4083,7 @@
       </c>
       <c r="B15" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"GL")+COUNTIF(playoffs!A:A,"GL")+COUNTIF(playoffs!E:E,"GL")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"LG")+COUNTIF(playoffs!A:A,"LG")+COUNTIF(playoffs!E:E,"LG")&amp;" ("&amp;COUNTIF(playoffs!A:A,"GL")+COUNTIF(playoffs!E:E,"GL")&amp;"-"&amp;COUNTIF(playoffs!A:A,"LG")+COUNTIF(playoffs!E:E,"LG")&amp;")"</f>
-        <v>6-6 (0-1)</v>
+        <v>7-6 (0-1)</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4092,7 @@
       </c>
       <c r="B16" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"GC")+COUNTIF(playoffs!A:A,"GC")+COUNTIF(playoffs!E:E,"GC")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"CG")+COUNTIF(playoffs!A:A,"CG")+COUNTIF(playoffs!E:E,"CG")&amp;" ("&amp;COUNTIF(playoffs!A:A,"GC")+COUNTIF(playoffs!E:E,"GC")&amp;"-"&amp;COUNTIF(playoffs!A:A,"CG")+COUNTIF(playoffs!E:E,"CG")&amp;")"</f>
-        <v>3-6 (0-0)</v>
+        <v>3-7 (0-0)</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,7 +4152,7 @@
       </c>
       <c r="B24" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"SN")+COUNTIF(playoffs!A:A,"SN")+COUNTIF(playoffs!E:E,"SN")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"NS")+COUNTIF(playoffs!A:A,"NS")+COUNTIF(playoffs!E:E,"NS")&amp;" ("&amp;COUNTIF(playoffs!A:A,"SN")+COUNTIF(playoffs!E:E,"SN")&amp;"-"&amp;COUNTIF(playoffs!A:A,"NS")+COUNTIF(playoffs!E:E,"NS")&amp;")"</f>
-        <v>4-7 (0-0)</v>
+        <v>5-7 (0-0)</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4179,7 @@
       </c>
       <c r="B27" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"SK")+COUNTIF(playoffs!A:A,"SK")+COUNTIF(playoffs!E:E,"SK")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"KS")+COUNTIF(playoffs!A:A,"KS")+COUNTIF(playoffs!E:E,"KS")&amp;" ("&amp;COUNTIF(playoffs!A:A,"SK")+COUNTIF(playoffs!E:E,"SK")&amp;"-"&amp;COUNTIF(playoffs!A:A,"KS")+COUNTIF(playoffs!E:E,"KS")&amp;")"</f>
-        <v>3-2 (0-0)</v>
+        <v>3-3 (0-0)</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4121,7 +4188,7 @@
       </c>
       <c r="B28" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"SJ")+COUNTIF(playoffs!A:A,"SJ")+COUNTIF(playoffs!E:E,"SJ")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"JS")+COUNTIF(playoffs!A:A,"JS")+COUNTIF(playoffs!E:E,"JS")&amp;" ("&amp;COUNTIF(playoffs!A:A,"SJ")+COUNTIF(playoffs!E:E,"SJ")&amp;"-"&amp;COUNTIF(playoffs!A:A,"JS")+COUNTIF(playoffs!E:E,"JS")&amp;")"</f>
-        <v>6-9 (0-1)</v>
+        <v>6-10 (0-1)</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4212,7 @@
       </c>
       <c r="B32" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"NE")+COUNTIF(playoffs!A:A,"NE")+COUNTIF(playoffs!E:E,"NE")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"EN")+COUNTIF(playoffs!A:A,"EN")+COUNTIF(playoffs!E:E,"EN")&amp;" ("&amp;COUNTIF(playoffs!A:A,"NE")+COUNTIF(playoffs!E:E,"NE")&amp;"-"&amp;COUNTIF(playoffs!A:A,"EN")+COUNTIF(playoffs!E:E,"EN")&amp;")"</f>
-        <v>4-7 (0-0)</v>
+        <v>5-7 (0-0)</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4154,7 +4221,7 @@
       </c>
       <c r="B33" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"NG")+COUNTIF(playoffs!A:A,"NG")+COUNTIF(playoffs!E:E,"NG")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"GN")+COUNTIF(playoffs!A:A,"GN")+COUNTIF(playoffs!E:E,"GN")&amp;" ("&amp;COUNTIF(playoffs!A:A,"NG")+COUNTIF(playoffs!E:E,"NG")&amp;"-"&amp;COUNTIF(playoffs!A:A,"GN")+COUNTIF(playoffs!E:E,"GN")&amp;")"</f>
-        <v>11-5 (0-1)</v>
+        <v>11-6 (0-1)</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +4230,7 @@
       </c>
       <c r="B34" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"NS")+COUNTIF(playoffs!A:A,"NS")+COUNTIF(playoffs!E:E,"NS")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"SN")+COUNTIF(playoffs!A:A,"SN")+COUNTIF(playoffs!E:E,"SN")&amp;" ("&amp;COUNTIF(playoffs!A:A,"NS")+COUNTIF(playoffs!E:E,"NS")&amp;"-"&amp;COUNTIF(playoffs!A:A,"SN")+COUNTIF(playoffs!E:E,"SN")&amp;")"</f>
-        <v>7-4 (0-0)</v>
+        <v>7-5 (0-0)</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4290,7 @@
       </c>
       <c r="B42" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"LE")+COUNTIF(playoffs!A:A,"LE")+COUNTIF(playoffs!E:E,"LE")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"EL")+COUNTIF(playoffs!A:A,"EL")+COUNTIF(playoffs!E:E,"EL")&amp;" ("&amp;COUNTIF(playoffs!A:A,"LE")+COUNTIF(playoffs!E:E,"LE")&amp;"-"&amp;COUNTIF(playoffs!A:A,"EL")+COUNTIF(playoffs!E:E,"EL")&amp;")"</f>
-        <v>4-7 (0-0)</v>
+        <v>4-8 (0-0)</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4299,7 @@
       </c>
       <c r="B43" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"LG")+COUNTIF(playoffs!A:A,"LG")+COUNTIF(playoffs!E:E,"LG")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"GL")+COUNTIF(playoffs!A:A,"GL")+COUNTIF(playoffs!E:E,"GL")&amp;" ("&amp;COUNTIF(playoffs!A:A,"LG")+COUNTIF(playoffs!E:E,"LG")&amp;"-"&amp;COUNTIF(playoffs!A:A,"GL")+COUNTIF(playoffs!E:E,"GL")&amp;")"</f>
-        <v>6-6 (1-0)</v>
+        <v>6-7 (1-0)</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4259,7 +4326,7 @@
       </c>
       <c r="B46" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"LC")+COUNTIF(playoffs!A:A,"LC")+COUNTIF(playoffs!E:E,"LC")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"CL")+COUNTIF(playoffs!A:A,"CL")+COUNTIF(playoffs!E:E,"CL")&amp;" ("&amp;COUNTIF(playoffs!A:A,"LC")+COUNTIF(playoffs!E:E,"LC")&amp;"-"&amp;COUNTIF(playoffs!A:A,"CL")+COUNTIF(playoffs!E:E,"CL")&amp;")"</f>
-        <v>5-8 (0-0)</v>
+        <v>6-8 (0-0)</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4377,7 @@
       </c>
       <c r="B53" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"CG")+COUNTIF(playoffs!A:A,"CG")+COUNTIF(playoffs!E:E,"CG")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"GC")+COUNTIF(playoffs!A:A,"GC")+COUNTIF(playoffs!E:E,"GC")&amp;" ("&amp;COUNTIF(playoffs!A:A,"CG")+COUNTIF(playoffs!E:E,"CG")&amp;"-"&amp;COUNTIF(playoffs!A:A,"GC")+COUNTIF(playoffs!E:E,"GC")&amp;")"</f>
-        <v>6-3 (0-0)</v>
+        <v>7-3 (0-0)</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4404,7 @@
       </c>
       <c r="B56" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"CL")+COUNTIF(playoffs!A:A,"CL")+COUNTIF(playoffs!E:E,"CL")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"LC")+COUNTIF(playoffs!A:A,"LC")+COUNTIF(playoffs!E:E,"LC")&amp;" ("&amp;COUNTIF(playoffs!A:A,"CL")+COUNTIF(playoffs!E:E,"CL")&amp;"-"&amp;COUNTIF(playoffs!A:A,"LC")+COUNTIF(playoffs!E:E,"LC")&amp;")"</f>
-        <v>8-5 (0-0)</v>
+        <v>8-6 (0-0)</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4355,7 +4422,7 @@
       </c>
       <c r="B58" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"CJ")+COUNTIF(playoffs!A:A,"CJ")+COUNTIF(playoffs!E:E,"CJ")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"JC")+COUNTIF(playoffs!A:A,"JC")+COUNTIF(playoffs!E:E,"JC")&amp;" ("&amp;COUNTIF(playoffs!A:A,"CJ")+COUNTIF(playoffs!E:E,"CJ")&amp;"-"&amp;COUNTIF(playoffs!A:A,"JC")+COUNTIF(playoffs!E:E,"JC")&amp;")"</f>
-        <v>2-7 (0-0)</v>
+        <v>2-8 (0-0)</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,7 +4446,7 @@
       </c>
       <c r="B62" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"KE")+COUNTIF(playoffs!A:A,"KE")+COUNTIF(playoffs!E:E,"KE")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"EK")+COUNTIF(playoffs!A:A,"EK")+COUNTIF(playoffs!E:E,"EK")&amp;" ("&amp;COUNTIF(playoffs!A:A,"KE")+COUNTIF(playoffs!E:E,"KE")&amp;"-"&amp;COUNTIF(playoffs!A:A,"EK")+COUNTIF(playoffs!E:E,"EK")&amp;")"</f>
-        <v>5-3 (0-1)</v>
+        <v>6-3 (0-1)</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4464,7 @@
       </c>
       <c r="B64" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"KS")+COUNTIF(playoffs!A:A,"KS")+COUNTIF(playoffs!E:E,"KS")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"SK")+COUNTIF(playoffs!A:A,"SK")+COUNTIF(playoffs!E:E,"SK")&amp;" ("&amp;COUNTIF(playoffs!A:A,"KS")+COUNTIF(playoffs!E:E,"KS")&amp;"-"&amp;COUNTIF(playoffs!A:A,"SK")+COUNTIF(playoffs!E:E,"SK")&amp;")"</f>
-        <v>2-3 (0-0)</v>
+        <v>3-3 (0-0)</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4433,7 +4500,7 @@
       </c>
       <c r="B68" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"KJ")+COUNTIF(playoffs!A:A,"KJ")+COUNTIF(playoffs!E:E,"KJ")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"JK")+COUNTIF(playoffs!A:A,"JK")+COUNTIF(playoffs!E:E,"JK")&amp;" ("&amp;COUNTIF(playoffs!A:A,"KJ")+COUNTIF(playoffs!E:E,"KJ")&amp;"-"&amp;COUNTIF(playoffs!A:A,"JK")+COUNTIF(playoffs!E:E,"JK")&amp;")"</f>
-        <v>0-6 (0-0)</v>
+        <v>2-5 (0-0)</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +4542,7 @@
       </c>
       <c r="B74" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"JS")+COUNTIF(playoffs!A:A,"JS")+COUNTIF(playoffs!E:E,"JS")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"SJ")+COUNTIF(playoffs!A:A,"SJ")+COUNTIF(playoffs!E:E,"SJ")&amp;" ("&amp;COUNTIF(playoffs!A:A,"JS")+COUNTIF(playoffs!E:E,"JS")&amp;"-"&amp;COUNTIF(playoffs!A:A,"SJ")+COUNTIF(playoffs!E:E,"SJ")&amp;")"</f>
-        <v>9-6 (1-0)</v>
+        <v>10-6 (1-0)</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4569,7 @@
       </c>
       <c r="B77" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"JC")+COUNTIF(playoffs!A:A,"JC")+COUNTIF(playoffs!E:E,"JC")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"CJ")+COUNTIF(playoffs!A:A,"CJ")+COUNTIF(playoffs!E:E,"CJ")&amp;" ("&amp;COUNTIF(playoffs!A:A,"JC")+COUNTIF(playoffs!E:E,"JC")&amp;"-"&amp;COUNTIF(playoffs!A:A,"CJ")+COUNTIF(playoffs!E:E,"CJ")&amp;")"</f>
-        <v>7-2 (0-0)</v>
+        <v>8-2 (0-0)</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -4511,20 +4578,21 @@
       </c>
       <c r="B78" t="str">
         <f xml:space="preserve"> COUNTIF('partidos regular'!A:A,"JK")+COUNTIF(playoffs!A:A,"JK")+COUNTIF(playoffs!E:E,"JK")&amp;"-"&amp;COUNTIF('partidos regular'!A:A,"KJ")+COUNTIF(playoffs!A:A,"KJ")+COUNTIF(playoffs!E:E,"KJ")&amp;" ("&amp;COUNTIF(playoffs!A:A,"JK")+COUNTIF(playoffs!E:E,"JK")&amp;"-"&amp;COUNTIF(playoffs!A:A,"KJ")+COUNTIF(playoffs!E:E,"KJ")&amp;")"</f>
-        <v>6-0 (0-0)</v>
+        <v>5-2 (0-0)</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,75 +4604,76 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>(stats!$B$80*10+COUNTIF(playoffs!E:E,"*K*")*10+COUNTIF(playoffs!B:B,"K")*25+COUNTIF(playoffs!C:C,"K")*20+COUNTIF(playoffs!E:E,"K*")*30+(stats!$B$82/250)-COUNTIF(playoffs!D:D,"K")*15)/('partidos regular'!$B$1-43)</f>
-        <v>8.8504266666666673</v>
+        <v>10.291045333333333</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <f>(stats!$B$2*10+COUNTIF(playoffs!E:E,"*E*")*10+COUNTIF(playoffs!B:B,"E")*25+COUNTIF(playoffs!C:C,"E")*20+COUNTIF(playoffs!E:E,"E*")*30+(stats!$B$4/250)-COUNTIF(playoffs!D:D,"E")*15)/('partidos regular'!$B$1)</f>
-        <v>8.7734838356164389</v>
+        <v>8.9463386301369869</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <f>(stats!$B$14*10+COUNTIF(playoffs!E:E,"*J*")*10+COUNTIF(playoffs!B:B,"J")*25+COUNTIF(playoffs!C:C,"J")*20+COUNTIF(playoffs!E:E,"J*")*30+(stats!B16/250)-COUNTIF(playoffs!D:D,"J")*15)/('partidos regular'!$B$1)</f>
-        <v>9.3077139726027394</v>
+        <v>9.4849490410958914</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>(stats!$B$25*10+COUNTIF(playoffs!E:E,"*L*")*10+COUNTIF(playoffs!B:B,"L")*25+COUNTIF(playoffs!C:C,"L")*20+COUNTIF(playoffs!E:E,"L*")*30+(stats!$B$27/250)-COUNTIF(playoffs!D:D,"L")*15)/('partidos regular'!$B$1)</f>
-        <v>7.4245808219178091</v>
+        <v>7.5979627397260279</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <f>(stats!$B$58*10+COUNTIF(playoffs!E:E,"*S*")*10+COUNTIF(playoffs!B:B,"S")*25+COUNTIF(playoffs!C:C,"S")*20+COUNTIF(playoffs!E:E,"S*")*30+(stats!B60/250)-COUNTIF(playoffs!D:D,"S")*15)/('partidos regular'!$B$1)</f>
-        <v>7.0976898630136986</v>
+        <v>7.2737972602739731</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>(stats!$B$69*10+COUNTIF(playoffs!E:E,"*N*")*10+COUNTIF(playoffs!B:B,"N")*25+COUNTIF(playoffs!C:C,"N")*20+COUNTIF(playoffs!E:E,"N*")*30+(stats!B71/250)-COUNTIF(playoffs!D:D,"N")*15)/('partidos regular'!$B$1)</f>
-        <v>7.1716767123287681</v>
+        <v>7.3442936986301364</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>(stats!$B$47*10+COUNTIF(playoffs!E:E,"*G*")*10+COUNTIF(playoffs!B:B,"G")*25+COUNTIF(playoffs!C:C,"G")*20+COUNTIF(playoffs!E:E,"G*")*30+(stats!B49/250)-COUNTIF(playoffs!D:D,"G")*15)/('partidos regular'!$B$1)</f>
-        <v>5.9153906849315074</v>
+        <v>6.2272186301369858</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <f>(stats!$B$36*10+COUNTIF(playoffs!E:E,"*C*")*10+COUNTIF(playoffs!B:B,"C")*25+COUNTIF(playoffs!C:C,"C")*20+COUNTIF(playoffs!E:E,"C*")*30+(stats!B38/250)-COUNTIF(playoffs!D:D,"C")*15)/(('partidos regular'!$B$1)-14)</f>
-        <v>6.6057247457627115</v>
+        <v>6.8295037288135596</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>